--- a/CustomerSearchAction単体テスト仕様書.xlsx
+++ b/CustomerSearchAction単体テスト仕様書.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\unknown\Documents\OIC\サーバサイド\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{068451BD-B910-4D87-AB62-A3F11853EAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A53418E-9548-419A-8F2A-B0291CD145B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5676" yWindow="2580" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="命令網羅" sheetId="10" r:id="rId1"/>
     <sheet name="判定条件網羅" sheetId="11" r:id="rId2"/>
     <sheet name="条件網羅" sheetId="12" r:id="rId3"/>
+    <sheet name="CustomerSearchAction単体仕様書" sheetId="13" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -1108,6 +1109,60 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1116,185 +1171,230 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1377,105 +1477,6 @@
     </xf>
     <xf numFmtId="20" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1702,6 +1703,275 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>175962</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>84263</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AE187B9-306D-E991-A45F-2BA4F175D563}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="167640"/>
+          <a:ext cx="8100762" cy="5113463"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>61546</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>8173</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C0B7817-07C2-4014-B449-92194FD2E79D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5364480"/>
+          <a:ext cx="6767146" cy="6378493"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381614</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>107140</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFC945FD-539C-980C-9063-C35BB531C0D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="11902440"/>
+          <a:ext cx="7087214" cy="5303980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>480736</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>46755</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B2AE1A1-81C3-2104-E485-CEA81CCDA848}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="17266920"/>
+          <a:ext cx="7795936" cy="11949195"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>282704</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>38655</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D98A6ECC-605D-636F-DF71-6B742A521BE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="29337000"/>
+          <a:ext cx="8817104" cy="6408975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>160668</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>38859</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DF99555-3A3B-F8EF-6BA1-1AB11982804F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="35874960"/>
+          <a:ext cx="7475868" cy="8756139"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1990,12 +2260,12 @@
   <sheetData>
     <row r="2" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="95"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="75"/>
       <c r="J3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2013,26 +2283,26 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="96"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="97"/>
-      <c r="J4" s="103" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="78"/>
+      <c r="J4" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="104">
+      <c r="K4" s="79">
         <v>45076</v>
       </c>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="103"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -2043,105 +2313,105 @@
       <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="87" t="s">
+      <c r="E7" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="88"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="87" t="s">
+      <c r="F7" s="81"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="89"/>
-      <c r="J7" s="87" t="s">
+      <c r="I7" s="82"/>
+      <c r="J7" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="88"/>
-      <c r="L7" s="88"/>
-      <c r="M7" s="88"/>
-      <c r="N7" s="89"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="82"/>
     </row>
     <row r="8" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="83" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="19"/>
-      <c r="C9" s="92">
+      <c r="C9" s="85">
         <v>1</v>
       </c>
-      <c r="D9" s="94" t="s">
+      <c r="D9" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="95"/>
-      <c r="F9" s="98" t="s">
+      <c r="E9" s="75"/>
+      <c r="F9" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="42" t="s">
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="N9" s="101" t="s">
+      <c r="N9" s="88" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="91"/>
+      <c r="A10" s="84"/>
       <c r="B10" s="20"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="97"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="102"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="89"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="60" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="17"/>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="78" t="s">
+      <c r="D11" s="91"/>
+      <c r="E11" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="80"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="96"/>
     </row>
     <row r="12" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="18"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="83"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="98"/>
+      <c r="N12" s="99"/>
     </row>
     <row r="13" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
@@ -2151,17 +2421,17 @@
       <c r="B14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="C14" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="85"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="84" t="s">
+      <c r="D14" s="101"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="86"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="102"/>
       <c r="J14" s="3" t="s">
         <v>16</v>
       </c>
@@ -2171,25 +2441,25 @@
       <c r="L14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M14" s="84" t="s">
+      <c r="M14" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="N14" s="86"/>
+      <c r="N14" s="102"/>
     </row>
     <row r="15" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="42">
+      <c r="A15" s="60">
         <v>1</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="67"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="53"/>
       <c r="J15" s="4"/>
       <c r="K15" s="5"/>
       <c r="L15" s="4"/>
@@ -2197,15 +2467,15 @@
       <c r="N15" s="7"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="70"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="56"/>
       <c r="J16" s="8"/>
       <c r="K16" s="9"/>
       <c r="L16" s="8"/>
@@ -2213,15 +2483,15 @@
       <c r="N16" s="11"/>
     </row>
     <row r="17" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="73"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="59"/>
       <c r="J17" s="12"/>
       <c r="K17" s="13"/>
       <c r="L17" s="12"/>
@@ -2229,17 +2499,17 @@
       <c r="N17" s="15"/>
     </row>
     <row r="18" spans="1:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="42">
+      <c r="A18" s="60">
         <v>2</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="67"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="53"/>
       <c r="J18" s="4"/>
       <c r="K18" s="5"/>
       <c r="L18" s="4"/>
@@ -2247,15 +2517,15 @@
       <c r="N18" s="7"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="70"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="56"/>
       <c r="J19" s="8"/>
       <c r="K19" s="9"/>
       <c r="L19" s="8"/>
@@ -2263,15 +2533,15 @@
       <c r="N19" s="11"/>
     </row>
     <row r="20" spans="1:14" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="73"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="59"/>
       <c r="J20" s="12"/>
       <c r="K20" s="13"/>
       <c r="L20" s="12"/>
@@ -2279,17 +2549,17 @@
       <c r="N20" s="15"/>
     </row>
     <row r="21" spans="1:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="42">
+      <c r="A21" s="60">
         <v>3</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="67"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="53"/>
       <c r="J21" s="4"/>
       <c r="K21" s="5"/>
       <c r="L21" s="4"/>
@@ -2297,15 +2567,15 @@
       <c r="N21" s="7"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="70"/>
+      <c r="A22" s="61"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="56"/>
       <c r="J22" s="8"/>
       <c r="K22" s="9"/>
       <c r="L22" s="8"/>
@@ -2313,15 +2583,15 @@
       <c r="N22" s="11"/>
     </row>
     <row r="23" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="73"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="59"/>
       <c r="J23" s="12"/>
       <c r="K23" s="13"/>
       <c r="L23" s="12"/>
@@ -2329,17 +2599,17 @@
       <c r="N23" s="15"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="42">
+      <c r="A24" s="60">
         <v>4</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="67"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="53"/>
       <c r="J24" s="4"/>
       <c r="K24" s="5"/>
       <c r="L24" s="4"/>
@@ -2347,15 +2617,15 @@
       <c r="N24" s="7"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="70"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="56"/>
       <c r="J25" s="8"/>
       <c r="K25" s="9"/>
       <c r="L25" s="8"/>
@@ -2363,15 +2633,15 @@
       <c r="N25" s="11"/>
     </row>
     <row r="26" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="73"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="59"/>
       <c r="J26" s="12"/>
       <c r="K26" s="13"/>
       <c r="L26" s="12"/>
@@ -2379,17 +2649,17 @@
       <c r="N26" s="15"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="42">
+      <c r="A27" s="60">
         <v>5</v>
       </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="67"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="53"/>
       <c r="J27" s="4"/>
       <c r="K27" s="5"/>
       <c r="L27" s="4"/>
@@ -2397,15 +2667,15 @@
       <c r="N27" s="7"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="70"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="56"/>
       <c r="J28" s="8"/>
       <c r="K28" s="9"/>
       <c r="L28" s="8"/>
@@ -2413,15 +2683,15 @@
       <c r="N28" s="11"/>
     </row>
     <row r="29" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="73"/>
+      <c r="A29" s="62"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="59"/>
       <c r="J29" s="12"/>
       <c r="K29" s="13"/>
       <c r="L29" s="12"/>
@@ -2429,17 +2699,17 @@
       <c r="N29" s="15"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="42">
+      <c r="A30" s="60">
         <v>6</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="57"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="65"/>
       <c r="J30" s="4"/>
       <c r="K30" s="5"/>
       <c r="L30" s="4"/>
@@ -2447,15 +2717,15 @@
       <c r="N30" s="7"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="60"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="68"/>
       <c r="J31" s="8"/>
       <c r="K31" s="9"/>
       <c r="L31" s="8"/>
@@ -2463,15 +2733,15 @@
       <c r="N31" s="11"/>
     </row>
     <row r="32" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="63"/>
+      <c r="A32" s="62"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="71"/>
       <c r="J32" s="12"/>
       <c r="K32" s="13"/>
       <c r="L32" s="12"/>
@@ -2479,17 +2749,17 @@
       <c r="N32" s="15"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="42">
+      <c r="A33" s="60">
         <v>7</v>
       </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="57"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="65"/>
       <c r="J33" s="4"/>
       <c r="K33" s="5"/>
       <c r="L33" s="4"/>
@@ -2497,15 +2767,15 @@
       <c r="N33" s="7"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="60"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="68"/>
       <c r="J34" s="8"/>
       <c r="K34" s="9"/>
       <c r="L34" s="8"/>
@@ -2513,15 +2783,15 @@
       <c r="N34" s="11"/>
     </row>
     <row r="35" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="63"/>
+      <c r="A35" s="62"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="71"/>
       <c r="J35" s="12"/>
       <c r="K35" s="13"/>
       <c r="L35" s="12"/>
@@ -2530,33 +2800,12 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C27:E29"/>
-    <mergeCell ref="F27:I29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="C30:E32"/>
-    <mergeCell ref="F30:I32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="F9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E11:N12"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="C33:E35"/>
     <mergeCell ref="F33:I35"/>
@@ -2573,12 +2822,33 @@
     <mergeCell ref="C24:E26"/>
     <mergeCell ref="F24:I26"/>
     <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E11:N12"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="F9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="C27:E29"/>
+    <mergeCell ref="F27:I29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="C30:E32"/>
+    <mergeCell ref="F30:I32"/>
+    <mergeCell ref="B30:B32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2609,12 +2879,12 @@
   <sheetData>
     <row r="2" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="95"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="75"/>
       <c r="J3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2632,26 +2902,26 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="96"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="97"/>
-      <c r="J4" s="103" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="78"/>
+      <c r="J4" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="104">
+      <c r="K4" s="79">
         <v>45076</v>
       </c>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="103"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -2662,105 +2932,105 @@
       <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="87" t="s">
+      <c r="E7" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="88"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="87" t="s">
+      <c r="F7" s="81"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="89"/>
-      <c r="J7" s="87" t="s">
+      <c r="I7" s="82"/>
+      <c r="J7" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="88"/>
-      <c r="L7" s="88"/>
-      <c r="M7" s="88"/>
-      <c r="N7" s="89"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="82"/>
     </row>
     <row r="8" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="83" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="19"/>
-      <c r="C9" s="92">
+      <c r="C9" s="85">
         <v>1</v>
       </c>
-      <c r="D9" s="94" t="s">
+      <c r="D9" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="95"/>
-      <c r="F9" s="98" t="s">
+      <c r="E9" s="75"/>
+      <c r="F9" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="42" t="s">
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="N9" s="101" t="s">
+      <c r="N9" s="88" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="91"/>
+      <c r="A10" s="84"/>
       <c r="B10" s="20"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="97"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="102"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="89"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="60" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="17"/>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="78" t="s">
+      <c r="D11" s="91"/>
+      <c r="E11" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="80"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="96"/>
     </row>
     <row r="12" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="18"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="83"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="98"/>
+      <c r="N12" s="99"/>
     </row>
     <row r="13" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
@@ -2770,17 +3040,17 @@
       <c r="B14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="C14" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="85"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="84" t="s">
+      <c r="D14" s="101"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="86"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="102"/>
       <c r="J14" s="3" t="s">
         <v>16</v>
       </c>
@@ -2790,29 +3060,29 @@
       <c r="L14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M14" s="84" t="s">
+      <c r="M14" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="N14" s="86"/>
+      <c r="N14" s="102"/>
     </row>
     <row r="15" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="42">
+      <c r="A15" s="60">
         <v>1</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="47"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="65" t="s">
+      <c r="D15" s="43"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="67"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="53"/>
       <c r="J15" s="4"/>
       <c r="K15" s="5"/>
       <c r="L15" s="4"/>
@@ -2820,15 +3090,15 @@
       <c r="N15" s="7"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="70"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="56"/>
       <c r="J16" s="8"/>
       <c r="K16" s="9"/>
       <c r="L16" s="8"/>
@@ -2836,15 +3106,15 @@
       <c r="N16" s="11"/>
     </row>
     <row r="17" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="73"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="59"/>
       <c r="J17" s="12"/>
       <c r="K17" s="13"/>
       <c r="L17" s="12"/>
@@ -2852,23 +3122,23 @@
       <c r="N17" s="15"/>
     </row>
     <row r="18" spans="1:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="42">
+      <c r="A18" s="60">
         <v>2</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="47"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="65" t="s">
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="67"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="53"/>
       <c r="J18" s="4"/>
       <c r="K18" s="5"/>
       <c r="L18" s="4"/>
@@ -2876,15 +3146,15 @@
       <c r="N18" s="7"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="70"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="56"/>
       <c r="J19" s="8"/>
       <c r="K19" s="9"/>
       <c r="L19" s="8"/>
@@ -2892,15 +3162,15 @@
       <c r="N19" s="11"/>
     </row>
     <row r="20" spans="1:14" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="73"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="59"/>
       <c r="J20" s="12"/>
       <c r="K20" s="13"/>
       <c r="L20" s="12"/>
@@ -2908,23 +3178,23 @@
       <c r="N20" s="15"/>
     </row>
     <row r="21" spans="1:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="42">
+      <c r="A21" s="60">
         <v>3</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="47"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="65" t="s">
+      <c r="D21" s="43"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="67"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="53"/>
       <c r="J21" s="4"/>
       <c r="K21" s="5"/>
       <c r="L21" s="4"/>
@@ -2932,15 +3202,15 @@
       <c r="N21" s="7"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="70"/>
+      <c r="A22" s="61"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="56"/>
       <c r="J22" s="8"/>
       <c r="K22" s="9"/>
       <c r="L22" s="8"/>
@@ -2948,15 +3218,15 @@
       <c r="N22" s="11"/>
     </row>
     <row r="23" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="73"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="59"/>
       <c r="J23" s="12"/>
       <c r="K23" s="13"/>
       <c r="L23" s="12"/>
@@ -2964,17 +3234,17 @@
       <c r="N23" s="15"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="42">
+      <c r="A24" s="60">
         <v>4</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="67"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="53"/>
       <c r="J24" s="4"/>
       <c r="K24" s="5"/>
       <c r="L24" s="4"/>
@@ -2982,15 +3252,15 @@
       <c r="N24" s="7"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="70"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="56"/>
       <c r="J25" s="8"/>
       <c r="K25" s="9"/>
       <c r="L25" s="8"/>
@@ -2998,15 +3268,15 @@
       <c r="N25" s="11"/>
     </row>
     <row r="26" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="73"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="59"/>
       <c r="J26" s="12"/>
       <c r="K26" s="13"/>
       <c r="L26" s="12"/>
@@ -3014,17 +3284,17 @@
       <c r="N26" s="15"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="42">
+      <c r="A27" s="60">
         <v>5</v>
       </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="67"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="53"/>
       <c r="J27" s="4"/>
       <c r="K27" s="5"/>
       <c r="L27" s="4"/>
@@ -3032,15 +3302,15 @@
       <c r="N27" s="7"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="70"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="56"/>
       <c r="J28" s="8"/>
       <c r="K28" s="9"/>
       <c r="L28" s="8"/>
@@ -3048,15 +3318,15 @@
       <c r="N28" s="11"/>
     </row>
     <row r="29" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="73"/>
+      <c r="A29" s="62"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="59"/>
       <c r="J29" s="12"/>
       <c r="K29" s="13"/>
       <c r="L29" s="12"/>
@@ -3064,17 +3334,17 @@
       <c r="N29" s="15"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="42">
+      <c r="A30" s="60">
         <v>6</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="57"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="65"/>
       <c r="J30" s="4"/>
       <c r="K30" s="5"/>
       <c r="L30" s="4"/>
@@ -3082,15 +3352,15 @@
       <c r="N30" s="7"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="60"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="68"/>
       <c r="J31" s="8"/>
       <c r="K31" s="9"/>
       <c r="L31" s="8"/>
@@ -3098,15 +3368,15 @@
       <c r="N31" s="11"/>
     </row>
     <row r="32" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="63"/>
+      <c r="A32" s="62"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="71"/>
       <c r="J32" s="12"/>
       <c r="K32" s="13"/>
       <c r="L32" s="12"/>
@@ -3114,17 +3384,17 @@
       <c r="N32" s="15"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="42">
+      <c r="A33" s="60">
         <v>7</v>
       </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="57"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="65"/>
       <c r="J33" s="4"/>
       <c r="K33" s="5"/>
       <c r="L33" s="4"/>
@@ -3132,15 +3402,15 @@
       <c r="N33" s="7"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="60"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="68"/>
       <c r="J34" s="8"/>
       <c r="K34" s="9"/>
       <c r="L34" s="8"/>
@@ -3148,15 +3418,15 @@
       <c r="N34" s="11"/>
     </row>
     <row r="35" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="63"/>
+      <c r="A35" s="62"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="71"/>
       <c r="J35" s="12"/>
       <c r="K35" s="13"/>
       <c r="L35" s="12"/>
@@ -3165,43 +3435,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="F9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E11:N12"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:E17"/>
-    <mergeCell ref="F15:I17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:E20"/>
-    <mergeCell ref="F18:I20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:E23"/>
-    <mergeCell ref="F21:I23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:E26"/>
-    <mergeCell ref="F24:I26"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="C33:E35"/>
@@ -3214,6 +3447,43 @@
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="C30:E32"/>
     <mergeCell ref="F30:I32"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:E23"/>
+    <mergeCell ref="F21:I23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:E26"/>
+    <mergeCell ref="F24:I26"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:E17"/>
+    <mergeCell ref="F15:I17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:E20"/>
+    <mergeCell ref="F18:I20"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E11:N12"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="F9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3226,7 +3496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65272B81-ABDF-4881-894E-A1483172A1C4}">
   <dimension ref="A2:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView topLeftCell="C12" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
@@ -3250,12 +3520,12 @@
   <sheetData>
     <row r="2" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="151" t="s">
+      <c r="A3" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="153"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="113"/>
       <c r="J3" s="23" t="s">
         <v>1</v>
       </c>
@@ -3273,26 +3543,26 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="154"/>
-      <c r="B4" s="155"/>
-      <c r="C4" s="155"/>
-      <c r="D4" s="156"/>
-      <c r="J4" s="150" t="s">
+      <c r="A4" s="114"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="115"/>
+      <c r="J4" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="157">
+      <c r="K4" s="121">
         <v>45076</v>
       </c>
-      <c r="L4" s="150"/>
-      <c r="M4" s="150"/>
-      <c r="N4" s="150"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="120"/>
+      <c r="N4" s="120"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="J5" s="150"/>
-      <c r="K5" s="150"/>
-      <c r="L5" s="150"/>
-      <c r="M5" s="150"/>
-      <c r="N5" s="150"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120"/>
+      <c r="N5" s="120"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
@@ -3303,105 +3573,105 @@
       <c r="D7" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="158" t="s">
+      <c r="E7" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="159"/>
-      <c r="G7" s="160"/>
-      <c r="H7" s="158" t="s">
+      <c r="F7" s="106"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="160"/>
-      <c r="J7" s="158" t="s">
+      <c r="I7" s="107"/>
+      <c r="J7" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="159"/>
-      <c r="L7" s="159"/>
-      <c r="M7" s="159"/>
-      <c r="N7" s="160"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="107"/>
     </row>
     <row r="8" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="161" t="s">
+      <c r="A9" s="108" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="26"/>
-      <c r="C9" s="163">
+      <c r="C9" s="110">
         <v>1</v>
       </c>
-      <c r="D9" s="151" t="s">
+      <c r="D9" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="153"/>
-      <c r="F9" s="151" t="s">
+      <c r="E9" s="113"/>
+      <c r="F9" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="152"/>
-      <c r="H9" s="152"/>
-      <c r="I9" s="152"/>
-      <c r="J9" s="152"/>
-      <c r="K9" s="152"/>
-      <c r="L9" s="153"/>
-      <c r="M9" s="132" t="s">
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="113"/>
+      <c r="M9" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="N9" s="135" t="s">
+      <c r="N9" s="122" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="162"/>
+      <c r="A10" s="109"/>
       <c r="B10" s="27"/>
-      <c r="C10" s="164"/>
-      <c r="D10" s="154"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="154"/>
-      <c r="G10" s="155"/>
-      <c r="H10" s="155"/>
-      <c r="I10" s="155"/>
-      <c r="J10" s="155"/>
-      <c r="K10" s="155"/>
-      <c r="L10" s="156"/>
-      <c r="M10" s="134"/>
-      <c r="N10" s="136"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="115"/>
+      <c r="M10" s="119"/>
+      <c r="N10" s="123"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="132" t="s">
+      <c r="A11" s="118" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="22"/>
-      <c r="C11" s="137" t="s">
+      <c r="C11" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="138"/>
-      <c r="E11" s="141" t="s">
+      <c r="D11" s="125"/>
+      <c r="E11" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="142"/>
-      <c r="G11" s="142"/>
-      <c r="H11" s="142"/>
-      <c r="I11" s="142"/>
-      <c r="J11" s="142"/>
-      <c r="K11" s="142"/>
-      <c r="L11" s="142"/>
-      <c r="M11" s="142"/>
-      <c r="N11" s="143"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="129"/>
+      <c r="K11" s="129"/>
+      <c r="L11" s="129"/>
+      <c r="M11" s="129"/>
+      <c r="N11" s="130"/>
     </row>
     <row r="12" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="134"/>
+      <c r="A12" s="119"/>
       <c r="B12" s="24"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="144"/>
-      <c r="F12" s="145"/>
-      <c r="G12" s="145"/>
-      <c r="H12" s="145"/>
-      <c r="I12" s="145"/>
-      <c r="J12" s="145"/>
-      <c r="K12" s="145"/>
-      <c r="L12" s="145"/>
-      <c r="M12" s="145"/>
-      <c r="N12" s="146"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="132"/>
+      <c r="K12" s="132"/>
+      <c r="L12" s="132"/>
+      <c r="M12" s="132"/>
+      <c r="N12" s="133"/>
     </row>
     <row r="13" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.25">
@@ -3411,15 +3681,15 @@
       <c r="B14" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="147"/>
-      <c r="D14" s="148"/>
-      <c r="E14" s="149"/>
-      <c r="F14" s="147" t="s">
+      <c r="C14" s="134"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="148"/>
-      <c r="H14" s="148"/>
-      <c r="I14" s="149"/>
+      <c r="G14" s="135"/>
+      <c r="H14" s="135"/>
+      <c r="I14" s="136"/>
       <c r="J14" s="28" t="s">
         <v>16</v>
       </c>
@@ -3429,27 +3699,27 @@
       <c r="L14" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="M14" s="147" t="s">
+      <c r="M14" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="N14" s="149"/>
+      <c r="N14" s="136"/>
     </row>
     <row r="15" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="132">
+      <c r="A15" s="118">
         <v>1</v>
       </c>
-      <c r="B15" s="132"/>
-      <c r="C15" s="123" t="s">
+      <c r="B15" s="118"/>
+      <c r="C15" s="156" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="124"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="105" t="s">
+      <c r="D15" s="157"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="138" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="107"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="140"/>
       <c r="J15" s="30"/>
       <c r="K15" s="31"/>
       <c r="L15" s="30"/>
@@ -3457,15 +3727,15 @@
       <c r="N15" s="33"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="133"/>
-      <c r="B16" s="133"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="110"/>
+      <c r="A16" s="137"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="160"/>
+      <c r="E16" s="161"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="143"/>
       <c r="J16" s="34"/>
       <c r="K16" s="35"/>
       <c r="L16" s="34"/>
@@ -3473,15 +3743,15 @@
       <c r="N16" s="37"/>
     </row>
     <row r="17" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="134"/>
-      <c r="B17" s="134"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="113"/>
+      <c r="A17" s="119"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="162"/>
+      <c r="D17" s="163"/>
+      <c r="E17" s="164"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="145"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="146"/>
       <c r="J17" s="38"/>
       <c r="K17" s="39"/>
       <c r="L17" s="38"/>
@@ -3489,21 +3759,21 @@
       <c r="N17" s="41"/>
     </row>
     <row r="18" spans="1:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="132">
+      <c r="A18" s="118">
         <v>2</v>
       </c>
-      <c r="B18" s="132"/>
-      <c r="C18" s="114" t="s">
+      <c r="B18" s="118"/>
+      <c r="C18" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="115"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="105" t="s">
+      <c r="D18" s="148"/>
+      <c r="E18" s="149"/>
+      <c r="F18" s="138" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="106"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="107"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="139"/>
+      <c r="I18" s="140"/>
       <c r="J18" s="30"/>
       <c r="K18" s="31"/>
       <c r="L18" s="30"/>
@@ -3511,15 +3781,15 @@
       <c r="N18" s="33"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="133"/>
-      <c r="B19" s="133"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="110"/>
+      <c r="A19" s="137"/>
+      <c r="B19" s="137"/>
+      <c r="C19" s="150"/>
+      <c r="D19" s="151"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="143"/>
       <c r="J19" s="34"/>
       <c r="K19" s="35"/>
       <c r="L19" s="34"/>
@@ -3527,15 +3797,15 @@
       <c r="N19" s="37"/>
     </row>
     <row r="20" spans="1:14" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="134"/>
-      <c r="B20" s="134"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="113"/>
+      <c r="A20" s="119"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="153"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="146"/>
       <c r="J20" s="38"/>
       <c r="K20" s="39"/>
       <c r="L20" s="38"/>
@@ -3543,21 +3813,21 @@
       <c r="N20" s="41"/>
     </row>
     <row r="21" spans="1:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="132">
+      <c r="A21" s="118">
         <v>3</v>
       </c>
-      <c r="B21" s="132"/>
-      <c r="C21" s="114" t="s">
+      <c r="B21" s="118"/>
+      <c r="C21" s="147" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="115"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="105" t="s">
+      <c r="D21" s="148"/>
+      <c r="E21" s="149"/>
+      <c r="F21" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="106"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="107"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="140"/>
       <c r="J21" s="30"/>
       <c r="K21" s="31"/>
       <c r="L21" s="30"/>
@@ -3565,15 +3835,15 @@
       <c r="N21" s="33"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="133"/>
-      <c r="B22" s="133"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="110"/>
+      <c r="A22" s="137"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="143"/>
       <c r="J22" s="34"/>
       <c r="K22" s="35"/>
       <c r="L22" s="34"/>
@@ -3581,15 +3851,15 @@
       <c r="N22" s="37"/>
     </row>
     <row r="23" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="134"/>
-      <c r="B23" s="134"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="122"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="113"/>
+      <c r="A23" s="119"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="153"/>
+      <c r="D23" s="154"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="144"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="146"/>
       <c r="J23" s="38"/>
       <c r="K23" s="39"/>
       <c r="L23" s="38"/>
@@ -3597,21 +3867,21 @@
       <c r="N23" s="41"/>
     </row>
     <row r="24" spans="1:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="132">
+      <c r="A24" s="118">
         <v>4</v>
       </c>
-      <c r="B24" s="132"/>
-      <c r="C24" s="114" t="s">
+      <c r="B24" s="118"/>
+      <c r="C24" s="147" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="115"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="105" t="s">
+      <c r="D24" s="148"/>
+      <c r="E24" s="149"/>
+      <c r="F24" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="106"/>
-      <c r="H24" s="106"/>
-      <c r="I24" s="107"/>
+      <c r="G24" s="139"/>
+      <c r="H24" s="139"/>
+      <c r="I24" s="140"/>
       <c r="J24" s="30"/>
       <c r="K24" s="31"/>
       <c r="L24" s="30"/>
@@ -3619,15 +3889,15 @@
       <c r="N24" s="33"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="133"/>
-      <c r="B25" s="133"/>
-      <c r="C25" s="117"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="109"/>
-      <c r="I25" s="110"/>
+      <c r="A25" s="137"/>
+      <c r="B25" s="137"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="151"/>
+      <c r="E25" s="152"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="142"/>
+      <c r="I25" s="143"/>
       <c r="J25" s="34"/>
       <c r="K25" s="35"/>
       <c r="L25" s="34"/>
@@ -3635,15 +3905,15 @@
       <c r="N25" s="37"/>
     </row>
     <row r="26" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="134"/>
-      <c r="B26" s="134"/>
-      <c r="C26" s="120"/>
-      <c r="D26" s="121"/>
-      <c r="E26" s="122"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="112"/>
-      <c r="H26" s="112"/>
-      <c r="I26" s="113"/>
+      <c r="A26" s="119"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="153"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="146"/>
       <c r="J26" s="38"/>
       <c r="K26" s="39"/>
       <c r="L26" s="38"/>
@@ -3651,21 +3921,21 @@
       <c r="N26" s="41"/>
     </row>
     <row r="27" spans="1:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="132">
+      <c r="A27" s="118">
         <v>5</v>
       </c>
-      <c r="B27" s="132"/>
-      <c r="C27" s="123" t="s">
+      <c r="B27" s="118"/>
+      <c r="C27" s="156" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="124"/>
-      <c r="E27" s="125"/>
-      <c r="F27" s="105" t="s">
+      <c r="D27" s="157"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="107"/>
+      <c r="G27" s="139"/>
+      <c r="H27" s="139"/>
+      <c r="I27" s="140"/>
       <c r="J27" s="30"/>
       <c r="K27" s="31"/>
       <c r="L27" s="30"/>
@@ -3673,15 +3943,15 @@
       <c r="N27" s="33"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="133"/>
-      <c r="B28" s="133"/>
-      <c r="C28" s="126"/>
-      <c r="D28" s="127"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="109"/>
-      <c r="H28" s="109"/>
-      <c r="I28" s="110"/>
+      <c r="A28" s="137"/>
+      <c r="B28" s="137"/>
+      <c r="C28" s="159"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="161"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="142"/>
+      <c r="H28" s="142"/>
+      <c r="I28" s="143"/>
       <c r="J28" s="34"/>
       <c r="K28" s="35"/>
       <c r="L28" s="34"/>
@@ -3689,15 +3959,15 @@
       <c r="N28" s="37"/>
     </row>
     <row r="29" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="134"/>
-      <c r="B29" s="134"/>
-      <c r="C29" s="129"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="131"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="112"/>
-      <c r="H29" s="112"/>
-      <c r="I29" s="113"/>
+      <c r="A29" s="119"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="162"/>
+      <c r="D29" s="163"/>
+      <c r="E29" s="164"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="146"/>
       <c r="J29" s="38"/>
       <c r="K29" s="39"/>
       <c r="L29" s="38"/>
@@ -3705,21 +3975,21 @@
       <c r="N29" s="41"/>
     </row>
     <row r="30" spans="1:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="132">
+      <c r="A30" s="118">
         <v>6</v>
       </c>
-      <c r="B30" s="132"/>
-      <c r="C30" s="114" t="s">
+      <c r="B30" s="118"/>
+      <c r="C30" s="147" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="115"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="105" t="s">
+      <c r="D30" s="148"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="138" t="s">
         <v>47</v>
       </c>
-      <c r="G30" s="106"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="107"/>
+      <c r="G30" s="139"/>
+      <c r="H30" s="139"/>
+      <c r="I30" s="140"/>
       <c r="J30" s="30"/>
       <c r="K30" s="31"/>
       <c r="L30" s="30"/>
@@ -3727,15 +3997,15 @@
       <c r="N30" s="33"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="133"/>
-      <c r="B31" s="133"/>
-      <c r="C31" s="117"/>
-      <c r="D31" s="118"/>
-      <c r="E31" s="119"/>
-      <c r="F31" s="108"/>
-      <c r="G31" s="109"/>
-      <c r="H31" s="109"/>
-      <c r="I31" s="110"/>
+      <c r="A31" s="137"/>
+      <c r="B31" s="137"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="151"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="141"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="142"/>
+      <c r="I31" s="143"/>
       <c r="J31" s="34"/>
       <c r="K31" s="35"/>
       <c r="L31" s="34"/>
@@ -3743,15 +4013,15 @@
       <c r="N31" s="37"/>
     </row>
     <row r="32" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="134"/>
-      <c r="B32" s="134"/>
-      <c r="C32" s="120"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="122"/>
-      <c r="F32" s="111"/>
-      <c r="G32" s="112"/>
-      <c r="H32" s="112"/>
-      <c r="I32" s="113"/>
+      <c r="A32" s="119"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="153"/>
+      <c r="D32" s="154"/>
+      <c r="E32" s="155"/>
+      <c r="F32" s="144"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="146"/>
       <c r="J32" s="38"/>
       <c r="K32" s="39"/>
       <c r="L32" s="38"/>
@@ -3759,21 +4029,21 @@
       <c r="N32" s="41"/>
     </row>
     <row r="33" spans="1:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="132">
+      <c r="A33" s="118">
         <v>7</v>
       </c>
-      <c r="B33" s="132"/>
-      <c r="C33" s="114" t="s">
+      <c r="B33" s="118"/>
+      <c r="C33" s="147" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="115"/>
-      <c r="E33" s="116"/>
-      <c r="F33" s="105" t="s">
+      <c r="D33" s="148"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="138" t="s">
         <v>48</v>
       </c>
-      <c r="G33" s="106"/>
-      <c r="H33" s="106"/>
-      <c r="I33" s="107"/>
+      <c r="G33" s="139"/>
+      <c r="H33" s="139"/>
+      <c r="I33" s="140"/>
       <c r="J33" s="30"/>
       <c r="K33" s="31"/>
       <c r="L33" s="30"/>
@@ -3781,15 +4051,15 @@
       <c r="N33" s="33"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="133"/>
-      <c r="B34" s="133"/>
-      <c r="C34" s="117"/>
-      <c r="D34" s="118"/>
-      <c r="E34" s="119"/>
-      <c r="F34" s="108"/>
-      <c r="G34" s="109"/>
-      <c r="H34" s="109"/>
-      <c r="I34" s="110"/>
+      <c r="A34" s="137"/>
+      <c r="B34" s="137"/>
+      <c r="C34" s="150"/>
+      <c r="D34" s="151"/>
+      <c r="E34" s="152"/>
+      <c r="F34" s="141"/>
+      <c r="G34" s="142"/>
+      <c r="H34" s="142"/>
+      <c r="I34" s="143"/>
       <c r="J34" s="34"/>
       <c r="K34" s="35"/>
       <c r="L34" s="34"/>
@@ -3797,15 +4067,15 @@
       <c r="N34" s="37"/>
     </row>
     <row r="35" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="134"/>
-      <c r="B35" s="134"/>
-      <c r="C35" s="120"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="122"/>
-      <c r="F35" s="111"/>
-      <c r="G35" s="112"/>
-      <c r="H35" s="112"/>
-      <c r="I35" s="113"/>
+      <c r="A35" s="119"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="153"/>
+      <c r="D35" s="154"/>
+      <c r="E35" s="155"/>
+      <c r="F35" s="144"/>
+      <c r="G35" s="145"/>
+      <c r="H35" s="145"/>
+      <c r="I35" s="146"/>
       <c r="J35" s="38"/>
       <c r="K35" s="39"/>
       <c r="L35" s="38"/>
@@ -3813,73 +4083,38 @@
       <c r="N35" s="41"/>
     </row>
     <row r="36" spans="1:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="114" t="s">
+      <c r="C36" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="115"/>
-      <c r="E36" s="116"/>
-      <c r="F36" s="105" t="s">
+      <c r="D36" s="148"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="138" t="s">
         <v>49</v>
       </c>
-      <c r="G36" s="106"/>
-      <c r="H36" s="106"/>
-      <c r="I36" s="107"/>
+      <c r="G36" s="139"/>
+      <c r="H36" s="139"/>
+      <c r="I36" s="140"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C37" s="117"/>
-      <c r="D37" s="118"/>
-      <c r="E37" s="119"/>
-      <c r="F37" s="108"/>
-      <c r="G37" s="109"/>
-      <c r="H37" s="109"/>
-      <c r="I37" s="110"/>
+      <c r="C37" s="150"/>
+      <c r="D37" s="151"/>
+      <c r="E37" s="152"/>
+      <c r="F37" s="141"/>
+      <c r="G37" s="142"/>
+      <c r="H37" s="142"/>
+      <c r="I37" s="143"/>
     </row>
     <row r="38" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="120"/>
-      <c r="D38" s="121"/>
-      <c r="E38" s="122"/>
-      <c r="F38" s="111"/>
-      <c r="G38" s="112"/>
-      <c r="H38" s="112"/>
-      <c r="I38" s="113"/>
+      <c r="C38" s="153"/>
+      <c r="D38" s="154"/>
+      <c r="E38" s="155"/>
+      <c r="F38" s="144"/>
+      <c r="G38" s="145"/>
+      <c r="H38" s="145"/>
+      <c r="I38" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="F9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E11:N12"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
     <mergeCell ref="F36:I38"/>
     <mergeCell ref="C36:E38"/>
     <mergeCell ref="F18:I20"/>
@@ -3896,10 +4131,61 @@
     <mergeCell ref="C27:E29"/>
     <mergeCell ref="F33:I35"/>
     <mergeCell ref="C33:E35"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E11:N12"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="F9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B784A2D-2CA8-4DB1-9EED-35257FEAC8F9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="A215" sqref="A215"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>